--- a/Generating Results/long_rectangle_datatable.xlsx
+++ b/Generating Results/long_rectangle_datatable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\theha\Desktop\Github_Repositories\Thesis\Generating Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{873A1330-E758-48E4-A483-62B9ACA0B8D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39B82F92-691B-46AF-9BE0-8BD0CA291731}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -679,7 +679,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -877,6 +877,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -1038,7 +1044,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
@@ -1046,6 +1052,8 @@
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1091,277 +1099,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="35">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="8">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1752,10 +1490,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AS136"/>
+  <dimension ref="A1:AS137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K124" workbookViewId="0">
-      <selection activeCell="Z134" sqref="Z134"/>
+    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="K1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AB133" sqref="AB133:AB134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5174,116 +4913,116 @@
         <v>3.1900022252749002E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:45" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="2" t="s">
+    <row r="31" spans="1:45" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="B31" s="2">
+      <c r="B31" s="7">
         <v>1.7189910079502099E-3</v>
       </c>
-      <c r="C31" s="2">
+      <c r="C31" s="7">
         <v>2.6595394440607199E-3</v>
       </c>
-      <c r="D31" s="2">
+      <c r="D31" s="7">
         <v>1.28890049365267</v>
       </c>
-      <c r="E31" s="2">
+      <c r="E31" s="7">
         <v>1.6753073302219301E-3</v>
       </c>
-      <c r="F31" s="2">
+      <c r="F31" s="7">
         <v>2.4837015321429201E-3</v>
       </c>
-      <c r="G31" s="2">
+      <c r="G31" s="7">
         <v>1.0553854170413599</v>
       </c>
-      <c r="H31" s="2">
+      <c r="H31" s="7">
         <v>2.4117535280170298E-3</v>
       </c>
-      <c r="I31" s="2">
+      <c r="I31" s="7">
         <v>3.8600928492912899E-3</v>
       </c>
-      <c r="J31" s="2">
+      <c r="J31" s="7">
         <v>1.4603198458483899</v>
       </c>
-      <c r="K31" s="2">
+      <c r="K31" s="7">
         <v>0.21859645416175399</v>
       </c>
-      <c r="L31" s="2">
+      <c r="L31" s="7">
         <v>6.7593991053056203E-3</v>
       </c>
-      <c r="M31" s="2">
+      <c r="M31" s="7">
         <v>87.084150595134105</v>
       </c>
-      <c r="N31" s="2">
+      <c r="N31" s="7">
         <v>8.1272103884382801E-2</v>
       </c>
-      <c r="O31" s="2">
+      <c r="O31" s="7">
         <v>6.4169707927724598E-3</v>
       </c>
-      <c r="P31" s="2">
+      <c r="P31" s="7">
         <v>188.97132593787799</v>
       </c>
-      <c r="Q31" s="2">
+      <c r="Q31" s="7">
         <v>0.187822887786712</v>
       </c>
-      <c r="R31" s="2">
+      <c r="R31" s="7">
         <v>1.5660781304114801E-3</v>
       </c>
-      <c r="S31" s="2">
+      <c r="S31" s="7">
         <v>255.56718687239601</v>
       </c>
-      <c r="T31" s="2">
+      <c r="T31" s="7">
         <v>4.2492843016812701E-3</v>
       </c>
-      <c r="U31" s="2">
+      <c r="U31" s="7">
         <v>2.8844426591548801E-3</v>
       </c>
-      <c r="V31" s="2">
+      <c r="V31" s="7">
         <v>3.1372517242642601</v>
       </c>
-      <c r="W31" s="2">
+      <c r="W31" s="7">
         <v>4.1264266133867796E-3</v>
       </c>
-      <c r="X31" s="2">
+      <c r="X31" s="7">
         <v>1.2744641111186901E-3</v>
       </c>
-      <c r="Y31" s="2">
+      <c r="Y31" s="7">
         <v>2.4009384712261599</v>
       </c>
-      <c r="Z31" s="2">
+      <c r="Z31" s="7">
         <v>0.29946065116176501</v>
       </c>
-      <c r="AA31" s="2">
+      <c r="AA31" s="7">
         <v>6.3513388916813501E-3</v>
       </c>
-      <c r="AB31" s="2">
+      <c r="AB31" s="7">
         <v>200.28318615261901</v>
       </c>
-      <c r="AI31" s="3">
+      <c r="AI31" s="8">
         <v>2.6190680908762599E-5</v>
       </c>
-      <c r="AJ31" s="3">
+      <c r="AJ31" s="8">
         <v>4.50608830741687E-5</v>
       </c>
-      <c r="AK31" s="3">
+      <c r="AK31" s="8">
         <v>2.7377211079026801E-5</v>
       </c>
-      <c r="AL31" s="3">
+      <c r="AL31" s="8">
         <v>4.7597590894962699E-5</v>
       </c>
-      <c r="AM31" s="3">
+      <c r="AM31" s="8">
         <v>2.7562856606460001E-5</v>
       </c>
-      <c r="AN31" s="3">
+      <c r="AN31" s="8">
         <v>5.0048633246607101E-5</v>
       </c>
-      <c r="AQ31" s="2">
+      <c r="AQ31" s="7">
         <v>6719.3085608604997</v>
       </c>
-      <c r="AR31" s="2">
+      <c r="AR31" s="7">
         <v>30408.740610212899</v>
       </c>
-      <c r="AS31" s="2">
+      <c r="AS31" s="7">
         <v>2.9769785010131802E-2</v>
       </c>
     </row>
@@ -9371,116 +9110,116 @@
         <v>4.7262436134751902E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:45" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="2" t="s">
+    <row r="72" spans="1:45" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="B72" s="2">
+      <c r="B72" s="7">
         <v>3.6739585426744001E-4</v>
       </c>
-      <c r="C72" s="2">
+      <c r="C72" s="7">
         <v>4.11152303636067E-4</v>
       </c>
-      <c r="D72" s="2">
+      <c r="D72" s="7">
         <v>0.30663490945221</v>
       </c>
-      <c r="E72" s="2">
+      <c r="E72" s="7">
         <v>0.305193171255286</v>
       </c>
-      <c r="F72" s="2">
+      <c r="F72" s="7">
         <v>3.3760783214861799E-4</v>
       </c>
-      <c r="G72" s="2">
+      <c r="G72" s="7">
         <v>199.82516987603299</v>
       </c>
-      <c r="H72" s="2">
+      <c r="H72" s="7">
         <v>3.4848099395447398E-4</v>
       </c>
-      <c r="I72" s="2">
+      <c r="I72" s="7">
         <v>3.44131806415542E-4</v>
       </c>
-      <c r="J72" s="2">
+      <c r="J72" s="7">
         <v>0.24094177094140701</v>
       </c>
-      <c r="K72" s="2">
+      <c r="K72" s="7">
         <v>4.6726777507556203E-2</v>
       </c>
-      <c r="L72" s="2">
+      <c r="L72" s="7">
         <v>5.0591856099063898E-4</v>
       </c>
-      <c r="M72" s="2">
+      <c r="M72" s="7">
         <v>22.5549666123751</v>
       </c>
-      <c r="N72" s="2">
+      <c r="N72" s="7">
         <v>5.6400992366525599E-2</v>
       </c>
-      <c r="O72" s="2">
+      <c r="O72" s="7">
         <v>4.6206701496403802E-4</v>
       </c>
-      <c r="P72" s="2">
+      <c r="P72" s="7">
         <v>45.885874441398798</v>
       </c>
-      <c r="Q72" s="2">
+      <c r="Q72" s="7">
         <v>4.5776233434442197E-2</v>
       </c>
-      <c r="R72" s="2">
+      <c r="R72" s="7">
         <v>3.39717701073925E-4</v>
       </c>
-      <c r="S72" s="2">
+      <c r="S72" s="7">
         <v>191.09756948825299</v>
       </c>
-      <c r="T72" s="2">
+      <c r="T72" s="7">
         <v>3.68722422137503E-4</v>
       </c>
-      <c r="U72" s="2">
+      <c r="U72" s="7">
         <v>4.2366376020327897E-4</v>
       </c>
-      <c r="V72" s="2">
+      <c r="V72" s="7">
         <v>0.22688355241814401</v>
       </c>
-      <c r="W72" s="2">
+      <c r="W72" s="7">
         <v>4.0389743092901102E-4</v>
       </c>
-      <c r="X72" s="2">
+      <c r="X72" s="7">
         <v>2.9665091355433101E-4</v>
       </c>
-      <c r="Y72" s="2">
+      <c r="Y72" s="7">
         <v>0.23199949566328601</v>
       </c>
-      <c r="Z72" s="2">
+      <c r="Z72" s="7">
         <v>8.6370322891484094E-2</v>
       </c>
-      <c r="AA72" s="2">
+      <c r="AA72" s="7">
         <v>4.7588075035578502E-4</v>
       </c>
-      <c r="AB72" s="2">
+      <c r="AB72" s="7">
         <v>199.170998118124</v>
       </c>
-      <c r="AI72" s="3">
+      <c r="AI72" s="8">
         <v>2.10281481582885E-5</v>
       </c>
-      <c r="AJ72" s="3">
+      <c r="AJ72" s="8">
         <v>3.1932273473914797E-5</v>
       </c>
-      <c r="AK72" s="3">
+      <c r="AK72" s="8">
         <v>1.8570198440514899E-5</v>
       </c>
-      <c r="AL72" s="3">
+      <c r="AL72" s="8">
         <v>3.3240917120735997E-5</v>
       </c>
-      <c r="AM72" s="3">
+      <c r="AM72" s="8">
         <v>2.0944473431772699E-5</v>
       </c>
-      <c r="AN72" s="3">
+      <c r="AN72" s="8">
         <v>3.1487688923416299E-5</v>
       </c>
-      <c r="AQ72" s="2">
+      <c r="AQ72" s="7">
         <v>8.54558163188549</v>
       </c>
-      <c r="AR72" s="2">
+      <c r="AR72" s="7">
         <v>10.987935230650001</v>
       </c>
-      <c r="AS72" s="2">
+      <c r="AS72" s="7">
         <v>1.7008600790834799E-2</v>
       </c>
     </row>
@@ -10614,116 +10353,116 @@
         <v>2.49033093339339E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:45" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="2" t="s">
+    <row r="83" spans="1:45" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="B83" s="2">
+      <c r="B83" s="7">
         <v>4.2775978079894101E-4</v>
       </c>
-      <c r="C83" s="2">
+      <c r="C83" s="7">
         <v>4.37613564699314E-4</v>
       </c>
-      <c r="D83" s="2">
+      <c r="D83" s="7">
         <v>0.34319070049434097</v>
       </c>
-      <c r="E83" s="2">
+      <c r="E83" s="7">
         <v>0.28034714497955099</v>
       </c>
-      <c r="F83" s="2">
+      <c r="F83" s="7">
         <v>4.0227981272261101E-4</v>
       </c>
-      <c r="G83" s="2">
+      <c r="G83" s="7">
         <v>199.89988051408</v>
       </c>
-      <c r="H83" s="2">
+      <c r="H83" s="7">
         <v>2.35464836410941E-4</v>
       </c>
-      <c r="I83" s="2">
+      <c r="I83" s="7">
         <v>2.5994374128022498E-4</v>
       </c>
-      <c r="J83" s="2">
+      <c r="J83" s="7">
         <v>0.186494178454885</v>
       </c>
-      <c r="K83" s="2">
+      <c r="K83" s="7">
         <v>4.19071187740277E-3</v>
       </c>
-      <c r="L83" s="2">
+      <c r="L83" s="7">
         <v>3.5759940043823103E-4</v>
       </c>
-      <c r="M83" s="2">
+      <c r="M83" s="7">
         <v>5.8629146187548198</v>
       </c>
-      <c r="N83" s="2">
+      <c r="N83" s="7">
         <v>2.82275408866513E-2</v>
       </c>
-      <c r="O83" s="2">
+      <c r="O83" s="7">
         <v>5.1767863433688699E-4</v>
       </c>
-      <c r="P83" s="2">
+      <c r="P83" s="7">
         <v>13.318230217029001</v>
       </c>
-      <c r="Q83" s="2">
+      <c r="Q83" s="7">
         <v>0.14180537427965301</v>
       </c>
-      <c r="R83" s="2">
+      <c r="R83" s="7">
         <v>8.7578181911871303E-4</v>
       </c>
-      <c r="S83" s="2">
+      <c r="S83" s="7">
         <v>424.74149935740598</v>
       </c>
-      <c r="T83" s="2">
+      <c r="T83" s="7">
         <v>3.9040384863780401E-4</v>
       </c>
-      <c r="U83" s="2">
+      <c r="U83" s="7">
         <v>4.9801230271745705E-4</v>
       </c>
-      <c r="V83" s="2">
+      <c r="V83" s="7">
         <v>0.18544736650375199</v>
       </c>
-      <c r="W83" s="2">
+      <c r="W83" s="7">
         <v>3.31802659303961E-4</v>
       </c>
-      <c r="X83" s="2">
+      <c r="X83" s="7">
         <v>2.01533984128512E-4</v>
       </c>
-      <c r="Y83" s="2">
+      <c r="Y83" s="7">
         <v>0.82801646122757599</v>
       </c>
-      <c r="Z83" s="2">
+      <c r="Z83" s="7">
         <v>0.14464791127519799</v>
       </c>
-      <c r="AA83" s="2">
+      <c r="AA83" s="7">
         <v>9.2094620851520203E-4</v>
       </c>
-      <c r="AB83" s="2">
+      <c r="AB83" s="7">
         <v>200.43177368729999</v>
       </c>
-      <c r="AI83" s="3">
+      <c r="AI83" s="8">
         <v>2.0603046527326099E-5</v>
       </c>
-      <c r="AJ83" s="3">
+      <c r="AJ83" s="8">
         <v>3.3212822888709802E-5</v>
       </c>
-      <c r="AK83" s="3">
+      <c r="AK83" s="8">
         <v>1.9827580041196499E-5</v>
       </c>
-      <c r="AL83" s="3">
+      <c r="AL83" s="8">
         <v>2.9280945807192799E-5</v>
       </c>
-      <c r="AM83" s="3">
+      <c r="AM83" s="8">
         <v>1.8819601775449401E-5</v>
       </c>
-      <c r="AN83" s="3">
+      <c r="AN83" s="8">
         <v>3.3503052323524197E-5</v>
       </c>
-      <c r="AQ83" s="2">
+      <c r="AQ83" s="7">
         <v>96.704544824630801</v>
       </c>
-      <c r="AR83" s="2">
+      <c r="AR83" s="7">
         <v>505.83381792612602</v>
       </c>
-      <c r="AS83" s="2">
+      <c r="AS83" s="7">
         <v>2.4080697983169998E-2</v>
       </c>
     </row>
@@ -13130,116 +12869,116 @@
         <v>0.44512328159978798</v>
       </c>
     </row>
-    <row r="110" spans="1:45" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="2" t="s">
+    <row r="110" spans="1:45" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="B110" s="2">
+      <c r="B110" s="7">
         <v>5.48917794129084E-4</v>
       </c>
-      <c r="C110" s="2">
+      <c r="C110" s="7">
         <v>4.9941349251379503E-4</v>
       </c>
-      <c r="D110" s="2">
+      <c r="D110" s="7">
         <v>0.52600815350083996</v>
       </c>
-      <c r="E110" s="2">
+      <c r="E110" s="7">
         <v>0.20979895795620501</v>
       </c>
-      <c r="F110" s="2">
+      <c r="F110" s="7">
         <v>6.0149269409602102E-4</v>
       </c>
-      <c r="G110" s="2">
+      <c r="G110" s="7">
         <v>199.91149059665599</v>
       </c>
-      <c r="H110" s="2">
+      <c r="H110" s="7">
         <v>3.2653901600597599E-4</v>
       </c>
-      <c r="I110" s="2">
+      <c r="I110" s="7">
         <v>4.3935290632164702E-4</v>
       </c>
-      <c r="J110" s="2">
+      <c r="J110" s="7">
         <v>0.31266512838007199</v>
       </c>
-      <c r="K110" s="2">
+      <c r="K110" s="7">
         <v>3.3106126618028401E-3</v>
       </c>
-      <c r="L110" s="2">
+      <c r="L110" s="7">
         <v>4.0588213369026598E-4</v>
       </c>
-      <c r="M110" s="2">
+      <c r="M110" s="7">
         <v>2.3787791914024798</v>
       </c>
-      <c r="N110" s="2">
+      <c r="N110" s="7">
         <v>1.73773752945049E-2</v>
       </c>
-      <c r="O110" s="2">
+      <c r="O110" s="7">
         <v>6.3763683378954003E-4</v>
       </c>
-      <c r="P110" s="2">
+      <c r="P110" s="7">
         <v>19.2156243988508</v>
       </c>
-      <c r="Q110" s="2">
+      <c r="Q110" s="7">
         <v>0.103009103473887</v>
       </c>
-      <c r="R110" s="2">
+      <c r="R110" s="7">
         <v>3.6935912917715501E-4</v>
       </c>
-      <c r="S110" s="2">
+      <c r="S110" s="7">
         <v>141.98292105121899</v>
       </c>
-      <c r="T110" s="2">
+      <c r="T110" s="7">
         <v>7.4314705813759204E-3</v>
       </c>
-      <c r="U110" s="2">
+      <c r="U110" s="7">
         <v>6.6486021024958996E-4</v>
       </c>
-      <c r="V110" s="2">
+      <c r="V110" s="7">
         <v>6.2437256294480399</v>
       </c>
-      <c r="W110" s="2">
+      <c r="W110" s="7">
         <v>7.4379106904102904E-3</v>
       </c>
-      <c r="X110" s="2">
+      <c r="X110" s="7">
         <v>3.7075284281208701E-4</v>
       </c>
-      <c r="Y110" s="2">
+      <c r="Y110" s="7">
         <v>5.8872384601873096</v>
       </c>
-      <c r="Z110" s="2">
+      <c r="Z110" s="7">
         <v>0.10398680686775801</v>
       </c>
-      <c r="AA110" s="2">
+      <c r="AA110" s="7">
         <v>3.6291081371181698E-4</v>
       </c>
-      <c r="AB110" s="2">
+      <c r="AB110" s="7">
         <v>200.768874858532</v>
       </c>
-      <c r="AI110" s="3">
+      <c r="AI110" s="8">
         <v>1.8664802810702E-5</v>
       </c>
-      <c r="AJ110" s="3">
+      <c r="AJ110" s="8">
         <v>2.88933168315396E-5</v>
       </c>
-      <c r="AK110" s="3">
+      <c r="AK110" s="8">
         <v>1.8125134104858E-5</v>
       </c>
-      <c r="AL110" s="3">
+      <c r="AL110" s="8">
         <v>2.9548524813158401E-5</v>
       </c>
-      <c r="AM110" s="3">
+      <c r="AM110" s="8">
         <v>2.1684470308536701E-5</v>
       </c>
-      <c r="AN110" s="3">
+      <c r="AN110" s="8">
         <v>3.2802364588346298E-5</v>
       </c>
-      <c r="AQ110" s="2">
+      <c r="AQ110" s="7">
         <v>9.9328969380102006</v>
       </c>
-      <c r="AR110" s="2">
+      <c r="AR110" s="7">
         <v>16.9986435417294</v>
       </c>
-      <c r="AS110" s="2">
+      <c r="AS110" s="7">
         <v>0.30594564941707902</v>
       </c>
     </row>
@@ -15655,19 +15394,28 @@
         <v>2.6448845924471275E-3</v>
       </c>
       <c r="C133" s="4"/>
-      <c r="D133" s="4"/>
+      <c r="D133" s="4">
+        <f>AVERAGE(D129,D122,D119,D112,D110,D108,D102,D86,D83,D78,D75,D70:D73,D60:D62,D56:D58,D34,D31,D22,D18:D20)</f>
+        <v>1.5794568209232469</v>
+      </c>
       <c r="E133" s="4">
         <f>AVERAGE(E128:E129,E122,E112,E108,E101:E102,E97,E88,E86,E84,E70,E60:E62,E58,E52:E53,E34,E31,E22,E20,E18,E3)</f>
         <v>2.6403024797212126E-3</v>
       </c>
       <c r="F133" s="4"/>
-      <c r="G133" s="4"/>
+      <c r="G133" s="4">
+        <f>AVERAGE(G128:G129,G122,G112,G108,G101:G102,G97,G88,G86,G84,G70,G60:G62,G58,G52:G53,G34,G31,G22,G20,G18,G3)</f>
+        <v>1.6871773789365794</v>
+      </c>
       <c r="H133" s="4">
         <f>AVERAGE(H128:H129,H122,H119,H110:H111,H101,H97,H88,H83,H78,H75,H72,H70,H61,H56:H57,H52:H53,H31,H18:H20,H3)</f>
         <v>1.8425171923174266E-3</v>
       </c>
       <c r="I133" s="4"/>
-      <c r="J133" s="4"/>
+      <c r="J133" s="4">
+        <f>AVERAGE(J128:J129,J122,J119,J110:J111,J101,J97,J88,J83,J78,J75,J72,J70,J61,J56:J57,J52:J53,J31,J18:J20,J3)</f>
+        <v>1.3851346866262879</v>
+      </c>
       <c r="K133" s="4"/>
       <c r="L133" s="4"/>
       <c r="M133" s="4"/>
@@ -15682,19 +15430,28 @@
         <v>4.9617391612245404E-3</v>
       </c>
       <c r="U133" s="4"/>
-      <c r="V133" s="4"/>
+      <c r="V133" s="4">
+        <f>AVERAGE(V129,V122,V110:V111,V97,V83:V84,V71:V72,V60,V52,V34,V31,V20)</f>
+        <v>3.1747203143244636</v>
+      </c>
       <c r="W133" s="4">
         <f>AVERAGE(W129,W127,W122,W110,W97,W86,W83:W84,W72,W52,W31,W34,W20)</f>
         <v>3.8041384160765498E-3</v>
       </c>
       <c r="X133" s="4"/>
-      <c r="Y133" s="4"/>
+      <c r="Y133" s="4">
+        <f>AVERAGE(Y129,Y127,Y122,Y110,Y97,Y86,Y83:Y84,Y72,Y52,Y31,Y34,Y20)</f>
+        <v>2.0740730739338629</v>
+      </c>
       <c r="Z133" s="4">
         <f>AVERAGE(Z128:Z129,Z122,Z119,Z108,Z102,Z97,Z88,Z84,Z70,Z60:Z61,Z58,Z56,Z52:Z53,Z19:Z20,Z22,Z3)</f>
         <v>1.4228265340074909E-3</v>
       </c>
       <c r="AA133" s="4"/>
-      <c r="AB133" s="4"/>
+      <c r="AB133" s="4">
+        <f>AVERAGE(AB128:AB129,AB122,AB119,AB108,AB102,AB97,AB88,AB84,AB70,AB60:AB61,AB58,AB56,AB52:AB53,AB19:AB20,AB22,AB3)</f>
+        <v>1.0144446577009334</v>
+      </c>
       <c r="AK133" s="1"/>
     </row>
     <row r="134" spans="1:45" x14ac:dyDescent="0.3">
@@ -15706,19 +15463,28 @@
         <v>7.9403159564543483E-4</v>
       </c>
       <c r="C134" s="4"/>
-      <c r="D134" s="4"/>
+      <c r="D134" s="4">
+        <f>STDEV(D129,D122,D119,D112,D110,D108,D102,D86,D83,D78,D75,D70:D73,D60:D62,D56:D58,D34,D31,D22,D18:D20)/SQRT(COUNT(D129,D122,D119,D112,D110,D108,D102,D86,D83,D78,D75,D70:D73,D60:D62,D56:D58,D34,D31,D22,D18:D20))</f>
+        <v>0.44562040248341589</v>
+      </c>
       <c r="E134" s="4">
         <f>STDEV(E128:E129,E122,E112,E108,E101:E102,E97,E88,E86,E84,E70,E60:E62,E58,E52:E53,E34,E31,E22,E20,E18,E3)/SQRT(COUNT(E128:E129,E122,E112,E108,E101:E102,E97,E88,E86,E84,E70,E60:E62,E58,E52:E53,E34,E31,E22,E20,E18,E3))</f>
         <v>8.6365356161497277E-4</v>
       </c>
       <c r="F134" s="4"/>
-      <c r="G134" s="4"/>
+      <c r="G134" s="4">
+        <f>STDEV(G128:G129,G122,G112,G108,G101:G102,G97,G88,G86,G84,G70,G60:G62,G58,G52:G53,G34,G31,G22,G20,G18,G3)/SQRT(COUNT(G128:G129,G122,G112,G108,G101:G102,G97,G88,G86,G84,G70,G60:G62,G58,G52:G53,G34,G31,G22,G20,G18,G3))</f>
+        <v>0.50549201825716794</v>
+      </c>
       <c r="H134" s="4">
         <f>STDEV(H128:H129,H122,H119,H110:H111,H101,H97,H88,H83,H78,H75,H72,H70,H61,H56:H57,H52:H53,H31,H18:H20,H3)/SQRT(COUNT(H128:H129,H122,H119,H110:H111,H101,H97,H88,H83,H78,H75,H72,H70,H61,H56:H57,H52:H53,H31,H18:H20,H3))</f>
         <v>6.2083026754822929E-4</v>
       </c>
       <c r="I134" s="4"/>
-      <c r="J134" s="4"/>
+      <c r="J134" s="4">
+        <f>STDEV(J128:J129,J122,J119,J110:J111,J101,J97,J88,J83,J78,J75,J72,J70,J61,J56:J57,J52:J53,J31,J18:J20,J3)/SQRT(COUNT(J128:J129,J122,J119,J110:J111,J101,J97,J88,J83,J78,J75,J72,J70,J61,J56:J57,J52:J53,J31,J18:J20,J3))</f>
+        <v>0.49814398595021864</v>
+      </c>
       <c r="K134" s="4"/>
       <c r="L134" s="4"/>
       <c r="M134" s="4"/>
@@ -15733,19 +15499,28 @@
         <v>1.6614632787491559E-3</v>
       </c>
       <c r="U134" s="4"/>
-      <c r="V134" s="4"/>
+      <c r="V134" s="4">
+        <f>STDEV(V129,V122,V110:V111,V97,V83:V84,V71:V72,V60,V52,V34,V31,V20)/SQRT(COUNT(V129,V122,V110:V111,V97,V83:V84,V71:V72,V60,V52,V34,V31,V20))</f>
+        <v>0.86653888409154878</v>
+      </c>
       <c r="W134" s="4">
         <f>STDEV(W129,W127,W122,W110,W97,W86,W83:W84,W72,W52,W31,W34,W20)/SQRT(COUNT(W129,W127,W122,W110,W97,W86,W83:W84,W72,W52,W31,W34,W20))</f>
         <v>1.4547540832820732E-3</v>
       </c>
       <c r="X134" s="4"/>
-      <c r="Y134" s="4"/>
+      <c r="Y134" s="4">
+        <f>STDEV(Y129,Y127,Y122,Y110,Y97,Y86,Y83:Y84,Y72,Y52,Y31,Y34,Y20)/SQRT(COUNT(Y129,Y127,Y122,Y110,Y97,Y86,Y83:Y84,Y72,Y52,Y31,Y34,Y20))</f>
+        <v>0.76272894526008372</v>
+      </c>
       <c r="Z134" s="4">
         <f>STDEV(Z128:Z129,Z122,Z119,Z108,Z102,Z97,Z88,Z84,Z70,Z60:Z61,Z58,Z56,Z52:Z53,Z19:Z20,Z22,Z3)/SQRT(COUNT(Z128:Z129,Z122,Z119,Z108,Z102,Z97,Z88,Z84,Z70,Z60:Z61,Z58,Z56,Z52:Z53,Z19:Z20,Z22,Z3))</f>
         <v>4.3474697781719328E-4</v>
       </c>
       <c r="AA134" s="4"/>
-      <c r="AB134" s="4"/>
+      <c r="AB134" s="4">
+        <f>STDEV(AB128:AB129,AB122,AB119,AB108,AB102,AB97,AB88,AB84,AB70,AB60:AB61,AB58,AB56,AB52:AB53,AB19:AB20,AB22,AB3)/SQRT(COUNT(AB128:AB129,AB122,AB119,AB108,AB102,AB97,AB88,AB84,AB70,AB60:AB61,AB58,AB56,AB52:AB53,AB19:AB20,AB22,AB3))</f>
+        <v>0.33752685785511399</v>
+      </c>
     </row>
     <row r="135" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
@@ -15796,43 +15571,49 @@
         <v>0.35714285714285715</v>
       </c>
     </row>
+    <row r="137" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="A137">
+        <f>COUNT(B95:B130,B45:B88,B44,B2:B37)</f>
+        <v>117</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="AI1:AI131 AK1:AK131 AM1:AM131 AM135:AM1048576 AK135:AK1048576 AI135:AI1048576">
-    <cfRule type="cellIs" dxfId="14" priority="8" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="lessThan">
       <formula>0.0001</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI132 AK132 AM132">
-    <cfRule type="cellIs" dxfId="13" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="lessThan">
       <formula>0.0001</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="cellIs" dxfId="12" priority="6" operator="lessThan">
+  <conditionalFormatting sqref="D1:D132 D135:D1048576">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="lessThan">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="cellIs" dxfId="11" priority="5" operator="lessThan">
+  <conditionalFormatting sqref="G1:G132 G135:G1048576">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="lessThan">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J1:J1048576">
-    <cfRule type="cellIs" dxfId="10" priority="4" operator="lessThan">
+  <conditionalFormatting sqref="J1:J132 J135:J1048576">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="lessThan">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V1:V1048576">
-    <cfRule type="cellIs" dxfId="9" priority="3" operator="lessThan">
+  <conditionalFormatting sqref="V1:V132 V135:V1048576">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="lessThan">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y1:Y1048576">
-    <cfRule type="cellIs" dxfId="8" priority="2" operator="lessThan">
+  <conditionalFormatting sqref="Y1:Y132 Y135:Y1048576">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB1:AB1048576">
+  <conditionalFormatting sqref="AB1:AB132 AB135:AB1048576">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>10</formula>
     </cfRule>
